--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\NTFx\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B511E538-CB9D-4D00-AC1E-8719446D8D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="示例" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +25,937 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="195">
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Pin name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Fail-safe</t>
+  </si>
+  <si>
+    <t>Alternate functions</t>
+  </si>
+  <si>
+    <t>Function selection</t>
+  </si>
+  <si>
+    <t>QFN32</t>
+  </si>
+  <si>
+    <t>LQFP32</t>
+  </si>
+  <si>
+    <t>LQFP44</t>
+  </si>
+  <si>
+    <t>LQFP48</t>
+  </si>
+  <si>
+    <t>LQFP64（MCU+LED合封）</t>
+  </si>
+  <si>
+    <t>LQFP64（MCU 14×14mm）</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Analog</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TIM5_CH1
+SPI3_MOSI
+RTC-TAMP1
+PD_WAKUP</t>
+  </si>
+  <si>
+    <t>ADC_IN0</t>
+  </si>
+  <si>
+    <t>PD_WAKUP</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>TIM1_BKIN
+TIM5_CH2
+SPI3_MISO
+RTC_REFCLKIN
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>ADC_IN1</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>TIM1_CH4
+TIM2_CH1
+TIM4_CH1
+TIM4_CH2
+I2C1_SDA
+I2C2_SDA
+SPI1_MOSI
+UART1_RX
+UART4_RX</t>
+  </si>
+  <si>
+    <t>COMP3_INP
+COMP3_OUT</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>TIM1_BKIN
+TIM1_CH3
+TIM1_CH4N
+TIM2_CH2
+CAN_TX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>COMP4_INM</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>TIM1_ETR
+TIM2_CH3
+TIM5_CH1
+TIM5_CH2
+I2C1_SCL
+I2C2_SCL
+SPI1_SCK
+CAN_RX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>COMP4_INP</t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SEG8_LCD
+TIM1_CH4
+TIM2_CH4
+I2C2_SMBA
+UART4_RX
+SWDIO
+Beeper_OUT
+MCO</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>SEG7_LCD
+TIM1_ETR
+TIM1_CH4N
+TIM2_CH1
+UART4_TX
+SWCLK</t>
+  </si>
+  <si>
+    <t>SWCLK</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>SEG12_LCD
+COM4_LED
+TIM1_ETR
+TIM5_ETR
+TIM5_CH1
+TIM5_CH2
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>TIM5_CH3
+I2C1_SMBA
+UART1_TX
+PD_WAKUP</t>
+  </si>
+  <si>
+    <t>ADC_IN2
+COMP1_INP
+COMP1_INM</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>TIM5_CH4
+I2C1_SDA
+UART1_RX
+CAN_RX</t>
+  </si>
+  <si>
+    <t>ADC_IN3
+COMP1_INP
+COMP2_INM
+COMP3_INM</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>TIM1_CH1
+TIM1_CH3N
+I2C1_SCL
+CAN_TX</t>
+  </si>
+  <si>
+    <t>ADC_IN4
+COMP2_INM</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>TIM1_BKIN
+TIM1_CH1N
+TIM2_ETR</t>
+  </si>
+  <si>
+    <t>ADC_IN5
+COMP1_INM
+COMP2_INP</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>TIM1_CH2
+TIM1_CH2N
+UART2_TX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>ADC_IN6
+COMP2_INP</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>TIM1_CH1N
+TIM1_CH2N
+SPI3_NSS
+SPI3_MISO
+UART2_RX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>ADC_IN7
+COMP2_OUT</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>TIM3_CH1
+TIM3_CH2
+I2C1_SCL
+I2C2_SCL
+I2C1_SDA
+I2C2_SDA
+SPI3_SCK
+UART3_RX</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>TIM1_CH1
+TIM1_CH2
+TIM1_CH3N
+SPI1_MISO
+SPI3_MOSI
+UART3_TX
+UART1_TX
+UART4_TX</t>
+  </si>
+  <si>
+    <t>COMP3_INM</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>SEG0_LCD
+TIM2_CH1
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>ADC_IN8
+COMP1_INM</t>
+  </si>
+  <si>
+    <t>EXTI0</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>SEG1_LCD</t>
+  </si>
+  <si>
+    <t>ADC_IN9
+COMP1_INP
+COMP3_INP</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>SEG3_LCD
+I2C1_SCL
+I2C2_SCL
+SPI1_SCK
+SPI1_MOSI
+SPI2_SCK
+SPI3_SCK
+UART1_TX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>ADC_IN11
+COMP2_INP
+COMP3_OUT</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>SEG4_LCD
+I2C1_SDA
+I2C2_SDA
+SPI1_MISO
+SPI1_MOSI
+SPI2_MOSI
+SPI3_MOSI
+UART1_RX
+UART2_RX</t>
+  </si>
+  <si>
+    <t>ADC_IN12
+COMP4_OUT</t>
+  </si>
+  <si>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>SEG5_LCD
+COM0_LED
+TIM1_CH4N
+TIM2_CH3
+SPI1_SCK
+SPI1_MISO
+SPI2_MISO
+SPI3_MISO
+UART2_TX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>ADC_IN13
+COMP3_INM</t>
+  </si>
+  <si>
+    <t>ADC_IN13</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>TIM1_CH1N
+I2C2_SMBA</t>
+  </si>
+  <si>
+    <t>COMP4_INM
+DAC_OUT</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>SEG9_LCD
+COM1_LED
+TIM1_CH2N
+TIM2_CH2
+UART5_TX
+Beeper_OUT
+MCO</t>
+  </si>
+  <si>
+    <t>COMP3_INP</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>SEG10_LCD
+COM2_LED
+TIM1_CH3N
+UART5_RX</t>
+  </si>
+  <si>
+    <t>COMP4_INP
+RTC_REFCLKIN</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>SEG2_LCD</t>
+  </si>
+  <si>
+    <t>ADC_IN10
+COMP2_INM
+COMP3_INM</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>CAN_TX
+EVENTOUT
+MCO</t>
+  </si>
+  <si>
+    <t>ADC_IN14</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>SEG13_LCD
+TIM5_CH4
+TIM5_CH3
+UART2_TX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>COMP3_OUT</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>SEG14_LCD
+TIM5_CH1
+TIM5_CH2
+UART2_RX</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>SEG0_LED
+SEG15_LCD
+TIM2_CH4
+TIM4_CH1</t>
+  </si>
+  <si>
+    <t>COMP1_OUT</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>SEG4_LED
+SEG19_LCD
+TIM4_CH2
+TIM4_CH3
+I2C1_SMBA</t>
+  </si>
+  <si>
+    <t>COMP2_INP</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>SEG1_LED
+SEG16_LCD
+TIM4_CH4
+TIM4_CH3
+I2C1_SCL
+I2C2_SCL
+UART3_TX
+UART5_TX
+RTC_TAMP2</t>
+  </si>
+  <si>
+    <t>UART3_TX</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>SEG2_LED
+SEG17_LCD
+TIM2_ETR
+TIM4_CH4
+I2C1_SDA
+I2C2_SDA
+SPI1_NSS
+SPI2_NSS
+UART3_RX
+UART5_RX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>COMP2_OUT</t>
+  </si>
+  <si>
+    <t>PC0</t>
+  </si>
+  <si>
+    <t>SEG13_LED
+SEG28_LCD
+I2C1_SCL
+I2C2_SCL
+SPI1_SCK
+SPI2_SCK
+SPI3_SCK
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>SEG14_LED
+SEG29_LCD
+TIM4_CH1
+TIM4_CH2
+SPI2_NSS
+SPI3_NSS
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>SEG6_LED
+SEG21_LCD
+I2C2_SCL
+UART3_TX</t>
+  </si>
+  <si>
+    <t>COMP4_OUT</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>SEG5_LED
+SEG20_LCD
+TIM3_CH1
+TIM3_CH2
+I2C2_SDA
+Beeper_OUT</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>SEG15_LED
+SEG30_LCD
+TIM1_CH1
+TIM1_CH2
+TIM4_ETR
+UART5_TX</t>
+  </si>
+  <si>
+    <t>PC13</t>
+  </si>
+  <si>
+    <t>SEG31_LCD
+TIM3_ETR
+I2C1_SCL
+I2C2_SCL
+SPI2_SCK
+RTC_OUT
+RTC-TAMP0</t>
+  </si>
+  <si>
+    <t>PC14</t>
+  </si>
+  <si>
+    <t>TIM2_CH3</t>
+  </si>
+  <si>
+    <t>PC15</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>SEG11_LED
+SEG26_LCD
+SPI2_MOSI
+SPI1_MISO
+SPI2_MISO
+SPI3_MISO
+UART2_TX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>SEG12_LED
+SEG27_LCD
+I2C1_SDA
+I2C2_SDA
+SPI2_MISO
+SPI1_MOSI
+SPI2_MOSI
+SPI3_MOSI
+UART2_RX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>SEG3_LED
+SEG18_LCD
+TIM4_ETR
+I2C1_SMBA
+SPI2_NSS
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>SEG8_LED
+SEG23_LCD
+TIM3_ETR
+I2C1_SCL
+I2C2_SCL
+SPI1_SCK
+SPI2_SCK
+SPI3_SCK</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>SEG9_LED
+SEG24_LCD
+TIM3_CH1
+I2C1_SCL
+I2C2_SCL
+I2C1_SDA
+I2C2_SDA
+SPI1_MOSI
+SPI2_MOSI
+SPI3_MOSI</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>SEG10_LED
+SEG25_LCD
+TIM3_CH2
+I2C1_SDA
+I2C2_SDA
+SPI1_MISO
+SPI2_MISO
+SPI3_MISO</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>SEG11_LCD
+COM3_LED
+TIM3_CH3
+TIM5_ETR
+TIM5_CH3
+TIM5_CH4
+I2C2_SMBA</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>SEG7_LED
+SEG22_LCD
+TIM3_CH4
+I2C2_SMBA
+UART3_RX</t>
+  </si>
+  <si>
+    <t>SEG7_LED</t>
+  </si>
+  <si>
+    <t>PD0</t>
+  </si>
+  <si>
+    <t>SEG6_LCD
+TIM2_CH2
+SPI1_NSS
+BOOT0</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>GCLK</t>
+  </si>
+  <si>
+    <t>PD10</t>
+  </si>
+  <si>
+    <t>COM6_LCD
+COM5_LED
+SEG33_LCD
+TIM3_CH1
+SPI2_MISO
+UART1_TX
+UART4_TX</t>
+  </si>
+  <si>
+    <t>COM5_LED</t>
+  </si>
+  <si>
+    <t>PD11</t>
+  </si>
+  <si>
+    <t>COM7_LCD
+SEG32_LCD
+TIM4_CH1
+I2C1_SDA
+I2C2_SDA
+SPI2_MOSI
+UART1_RX
+UART4_RX</t>
+  </si>
+  <si>
+    <t>PD12</t>
+  </si>
+  <si>
+    <t>TIM1_CH4N
+TIM3_CH3
+TIM3_CH4
+I2C1_SCL
+I2C2_SCL
+SPI3_NSS</t>
+  </si>
+  <si>
+    <t>PD13</t>
+  </si>
+  <si>
+    <t>TIM4_CH3
+TIM5_CH3
+TIM5_CH4
+I2C1_SDA
+I2C2_SDA
+SPI3_MISO
+UART3_TX
+UART3_RX</t>
+  </si>
+  <si>
+    <t>PD14-OSC_IN</t>
+  </si>
+  <si>
+    <t>TIM2_CH4
+TIM4_CH4
+I2C1_SDA</t>
+  </si>
+  <si>
+    <t>OSC_IN</t>
+  </si>
+  <si>
+    <t>PD15-OSC_OUT</t>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+  </si>
+  <si>
+    <t>OSC_OUT</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>SPI3_NSS</t>
+  </si>
+  <si>
+    <t>PD4</t>
+  </si>
+  <si>
+    <t>COM0_LCD
+TIM1_CH1
+TIM1_CH3
+TIM1_CH4
+I2C1_SMBA
+SPI1_MOSI
+UART4_RX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>PD5</t>
+  </si>
+  <si>
+    <t>COM1_LCD
+TIM1_CH1N
+TIM3_CH3
+TIM3_CH4
+SPI1_MISO
+UART4_TX
+UART5_RX
+EVENTOUT</t>
+  </si>
+  <si>
+    <t>PD6</t>
+  </si>
+  <si>
+    <t>COM2_LCD
+COM9_LED
+TIM1_CH2
+SPI1_SCK</t>
+  </si>
+  <si>
+    <t>COMP3_INM
+COMP4_INP</t>
+  </si>
+  <si>
+    <t>PD7</t>
+  </si>
+  <si>
+    <t>COM3_LCD
+COM8_LED
+SEG36_LCD
+TIM1_CH2N
+SPI1_NSS</t>
+  </si>
+  <si>
+    <t>PD8</t>
+  </si>
+  <si>
+    <t>COM4_LCD
+COM7_LED
+SEG35_LCD
+TIM1_CH3
+UART5_TX
+CAN_RX</t>
+  </si>
+  <si>
+    <t>PD9</t>
+  </si>
+  <si>
+    <t>COM5_LCD
+COM6_LED
+SEG34_LCD
+TIM1_CH3N
+UART5_RX
+CAN_TX</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>VDD_LED</t>
+  </si>
+  <si>
+    <t>VDDA</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>VSS_LED</t>
+  </si>
+  <si>
+    <t>VSSA</t>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +967,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,15 +975,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1348,4191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="39.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993132B1-D291-4B0B-A0C4-A82C955AE0C5}">
+  <dimension ref="A1:R73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="15" max="18" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="132" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="198" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2">
+        <v>60</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2">
+        <v>62</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2">
+        <v>63</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="66" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="264" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45</v>
+      </c>
+      <c r="E24" s="2">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2">
+        <v>59</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="2">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2">
+        <v>48</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="132" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="2">
+        <v>17</v>
+      </c>
+      <c r="F31" s="2">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="132" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2">
+        <v>21</v>
+      </c>
+      <c r="F32" s="2">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2">
+        <v>18</v>
+      </c>
+      <c r="F33" s="2">
+        <v>17</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="264" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2">
+        <v>27</v>
+      </c>
+      <c r="D34" s="2">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2">
+        <v>19</v>
+      </c>
+      <c r="F34" s="2">
+        <v>18</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2">
+        <v>30</v>
+      </c>
+      <c r="F35" s="2">
+        <v>29</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2">
+        <v>31</v>
+      </c>
+      <c r="F36" s="2">
+        <v>30</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>17</v>
+      </c>
+      <c r="E37" s="2">
+        <v>23</v>
+      </c>
+      <c r="F37" s="2">
+        <v>22</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2">
+        <v>22</v>
+      </c>
+      <c r="F38" s="2">
+        <v>21</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2">
+        <v>32</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2">
+        <v>32</v>
+      </c>
+      <c r="F39" s="2">
+        <v>31</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2">
+        <v>31</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2">
+        <v>33</v>
+      </c>
+      <c r="F40" s="2">
+        <v>32</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2">
+        <v>50</v>
+      </c>
+      <c r="F41" s="2">
+        <v>50</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>29</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2">
+        <v>49</v>
+      </c>
+      <c r="F42" s="2">
+        <v>49</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2">
+        <v>22</v>
+      </c>
+      <c r="E43" s="2">
+        <v>28</v>
+      </c>
+      <c r="F43" s="2">
+        <v>27</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="264" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="2">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2">
+        <v>23</v>
+      </c>
+      <c r="E44" s="2">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2">
+        <v>28</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2">
+        <v>19</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>22</v>
+      </c>
+      <c r="B46" s="2">
+        <v>21</v>
+      </c>
+      <c r="C46" s="2">
+        <v>21</v>
+      </c>
+      <c r="D46" s="2">
+        <v>19</v>
+      </c>
+      <c r="E46" s="2">
+        <v>25</v>
+      </c>
+      <c r="F46" s="2">
+        <v>24</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>21</v>
+      </c>
+      <c r="B47" s="2">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2">
+        <v>20</v>
+      </c>
+      <c r="E47" s="2">
+        <v>26</v>
+      </c>
+      <c r="F47" s="2">
+        <v>25</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="2">
+        <v>21</v>
+      </c>
+      <c r="E48" s="2">
+        <v>27</v>
+      </c>
+      <c r="F48" s="2">
+        <v>26</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2">
+        <v>12</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="132" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="2">
+        <v>28</v>
+      </c>
+      <c r="D50" s="2">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2">
+        <v>24</v>
+      </c>
+      <c r="F50" s="2">
+        <v>23</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>27</v>
+      </c>
+      <c r="B51" s="2">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
+        <v>15</v>
+      </c>
+      <c r="D51" s="2">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2">
+        <v>7</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2">
+        <v>29</v>
+      </c>
+      <c r="D53" s="2">
+        <v>26</v>
+      </c>
+      <c r="E53" s="2">
+        <v>35</v>
+      </c>
+      <c r="F53" s="2">
+        <v>34</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="2">
+        <v>24</v>
+      </c>
+      <c r="C54" s="2">
+        <v>30</v>
+      </c>
+      <c r="D54" s="2">
+        <v>25</v>
+      </c>
+      <c r="E54" s="2">
+        <v>34</v>
+      </c>
+      <c r="F54" s="2">
+        <v>33</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="2">
+        <v>28</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="2">
+        <v>41</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="2">
+        <v>29</v>
+      </c>
+      <c r="C56" s="2">
+        <v>42</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="2">
+        <v>43</v>
+      </c>
+      <c r="F56" s="2">
+        <v>43</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2">
+        <v>38</v>
+      </c>
+      <c r="E57" s="2">
+        <v>52</v>
+      </c>
+      <c r="F57" s="2">
+        <v>52</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2">
+        <v>39</v>
+      </c>
+      <c r="E58" s="2">
+        <v>53</v>
+      </c>
+      <c r="F58" s="2">
+        <v>53</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>29</v>
+      </c>
+      <c r="B60" s="2">
+        <v>27</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2">
+        <v>32</v>
+      </c>
+      <c r="E60" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" s="2">
+        <v>40</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>28</v>
+      </c>
+      <c r="B61" s="2">
+        <v>26</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2">
+        <v>31</v>
+      </c>
+      <c r="E61" s="2">
+        <v>40</v>
+      </c>
+      <c r="F61" s="2">
+        <v>39</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="2">
+        <v>30</v>
+      </c>
+      <c r="E62" s="2">
+        <v>39</v>
+      </c>
+      <c r="F62" s="2">
+        <v>38</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2">
+        <v>29</v>
+      </c>
+      <c r="E63" s="2">
+        <v>38</v>
+      </c>
+      <c r="F63" s="2">
+        <v>37</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2">
+        <v>25</v>
+      </c>
+      <c r="C64" s="2">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2">
+        <v>28</v>
+      </c>
+      <c r="E64" s="2">
+        <v>37</v>
+      </c>
+      <c r="F64" s="2">
+        <v>36</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="2">
+        <v>27</v>
+      </c>
+      <c r="E65" s="2">
+        <v>36</v>
+      </c>
+      <c r="F65" s="2">
+        <v>35</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>6</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2">
+        <v>37</v>
+      </c>
+      <c r="E66" s="2">
+        <v>51</v>
+      </c>
+      <c r="F66" s="2">
+        <v>51</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2">
+        <v>11</v>
+      </c>
+      <c r="D67" s="2">
+        <v>41</v>
+      </c>
+      <c r="E67" s="2">
+        <v>55</v>
+      </c>
+      <c r="F67" s="2">
+        <v>55</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="2">
+        <v>56</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="2">
+        <v>63</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2">
+        <v>7</v>
+      </c>
+      <c r="C70" s="2">
+        <v>11</v>
+      </c>
+      <c r="D70" s="2">
+        <v>41</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2">
+        <v>40</v>
+      </c>
+      <c r="E71" s="2">
+        <v>54</v>
+      </c>
+      <c r="F71" s="2">
+        <v>54</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="2">
+        <v>57</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2">
+        <v>6</v>
+      </c>
+      <c r="C73" s="2">
+        <v>10</v>
+      </c>
+      <c r="D73" s="2">
+        <v>40</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>